--- a/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>19.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002871</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票A</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.28</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002872</t>
+          <t>002871</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏智胜价值成长股票C</t>
+          <t>华夏智胜价值成长股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.47</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006165</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强A</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006166</t>
+          <t>006165</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强C</t>
+          <t>建信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.02</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.92</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>006166</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>建信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>002872</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>华夏智胜价值成长股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>易方达供给改革灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82.37</t>
+          <t>53.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0694</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005146</t>
+          <t>010389</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>兴银丰润灵活配置混合</t>
+          <t>易方达科益混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.43</t>
+          <t>28.09</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1180</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -790,26 +900,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006385</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合A</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.54</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006386</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华泰保兴研究智选灵活配置混合C</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.54</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1647</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>006385</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>华泰保兴研究智选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>519033</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>海富通国策导向混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>77.88</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010427</t>
+          <t>009651</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>兴银策略智选混合A</t>
+          <t>海富通成长甄选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010428</t>
+          <t>009652</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>兴银策略智选混合C</t>
+          <t>海富通成长甄选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>010427</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>兴银策略智选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79.22</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>519033</t>
+          <t>010390</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海富通国策导向混合</t>
+          <t>易方达科益混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83.04</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002910</t>
+          <t>010428</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>易方达供给改革灵活配置混合</t>
+          <t>兴银策略智选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004456</t>
+          <t>006386</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>兴银消费新趋势灵活配置混合</t>
+          <t>华泰保兴研究智选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.57</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009651</t>
+          <t>004456</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合A</t>
+          <t>兴银消费新趋势灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009652</t>
+          <t>005146</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海富通成长甄选混合C</t>
+          <t>兴银丰润灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1600,4 +1601,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
@@ -1625,12 +1625,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,323 +453,331 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160610</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华动力增长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.13</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9025</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007831</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0734</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002871</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0679</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007832</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博道伍佰智航股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002872</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏智胜价值成长股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
+      <c r="D4" t="n">
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3431</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1357,127 +1365,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010389</t>
+          <t>160610</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科益混合A</t>
+          <t>鹏华动力增长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>19.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.65</t>
+          <t>95.13</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7738</t>
+          <t>0.9025</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>007831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>博道伍佰智航股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.66</t>
+          <t>7.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.15</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3431</t>
+          <t>0.0734</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1485,204 +1493,196 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>002871</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>华夏智胜价值成长股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.02</t>
+          <t>93.28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1366</t>
+          <t>0.0679</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000066</t>
+          <t>007832</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安鸿鑫混合</t>
+          <t>博道伍佰智航股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.70</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0456</t>
+          <t>0.0244</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010390</t>
+          <t>006165</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达科益混合C</t>
+          <t>建信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>77.65</t>
+          <t>93.02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002872</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏智胜价值成长股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.17</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
+++ b/数据整理/stocks/A股/上证主板/603378-亚士创能.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.32</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>5.17</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.08</v>
       </c>
     </row>
@@ -532,6 +549,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -777,7 +926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1365,7 +1514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
